--- a/biology/Botanique/Siphonocladaceae/Siphonocladaceae.xlsx
+++ b/biology/Botanique/Siphonocladaceae/Siphonocladaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Siphonocladaceae sont une famille d'algues vertes de l'ordre des Siphonocladales selon ITIS      (30 avril 2013)[2], ou des Cladophorales selon AlgaeBase                                           (30 avril 2013)[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Siphonocladaceae sont une famille d'algues vertes de l'ordre des Siphonocladales selon ITIS      (30 avril 2013), ou des Cladophorales selon AlgaeBase                                           (30 avril 2013). 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Siphonocladus,composé du préfixe "siphon-", tube, et du suffixe"-cladus", « branche, pousse », littéralement « pousse en forme de tube », en référence à la morphologie de l'algue.
 </t>
@@ -542,16 +556,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (30 avril 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (30 avril 2013) :
 Apjohnia (en) Harvey
 Boergesenia J.Feldmann
 Chaetosiphon (en) Huber
 Chamaedoris (en) Montagne
 Ernodesmis (en) Børgesen
 Siphonocladus (en) F.Schmitz
-Selon World Register of Marine Species                               (30 avril 2013)[4] :
+Selon World Register of Marine Species                               (30 avril 2013) :
 Apjohnia Harvey, 1855
 Boergesenia J.Feldmann, 1938
 Chamaedoris Montagne, 1842
@@ -560,7 +576,7 @@
 Nereodictyon Gerloff, 1960
 Siphonocladus F.Schmitz, 1879
 Struveopsis (en) Rhyne &amp; H.Robinson, 1968
-Selon ITIS      (30 avril 2013)[2] :
+Selon ITIS      (30 avril 2013) :
 Apjohnia
 Chamaedoris Montagne, 1897
 Cladophoropsis (en) Borgesen, 1905
